--- a/bibliography.xlsx
+++ b/bibliography.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>short title</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Галинская Е.А. (2009) Историческая фонетика русского языка. Москва, Издательство Московского университета.</t>
+  </si>
+  <si>
+    <t>Князев С.В., Пожарицкая С.К. (2011) Современный русский литературный язык. Фонетика, орфоэпия, графика и орфография. Москва, "Академический проект", "Гаудеамус".</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,6 +818,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
